--- a/auctionFairProjectGantt.xlsx
+++ b/auctionFairProjectGantt.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chough/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\projects\Auction-Display-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA690251-3A54-2943-A662-8913F7323ABA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0083784F-CAD7-4C1F-88EF-6E7D33F1D468}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" xr2:uid="{F0563DC6-3C0E-49AD-8A18-C63AE16FB289}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19776" xr2:uid="{F0563DC6-3C0E-49AD-8A18-C63AE16FB289}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones and Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Start Date:</t>
   </si>
@@ -58,21 +63,12 @@
     <t>We also had 'add routes for pages' and 'connect to database' but that was a part of the MEVN tutorial</t>
   </si>
   <si>
-    <t>Skeleton of all web pages</t>
-  </si>
-  <si>
-    <t>Configure main monitor page(s) with a single layout</t>
-  </si>
-  <si>
     <t>Assigned to:</t>
   </si>
   <si>
     <t>Everyone</t>
   </si>
   <si>
-    <t>Ensure functionality with database such as importing/exporting data with GUI</t>
-  </si>
-  <si>
     <t>Authentication and security for admin login</t>
   </si>
   <si>
@@ -92,6 +88,21 @@
   </si>
   <si>
     <t>Duration:</t>
+  </si>
+  <si>
+    <t>Writing tests unit and integration test</t>
+  </si>
+  <si>
+    <t>Integrate CRUD with manage data page</t>
+  </si>
+  <si>
+    <t>Decorators, routing pages after authentication</t>
+  </si>
+  <si>
+    <t>Importing/exporting data with GUI</t>
+  </si>
+  <si>
+    <t>Connect display page to database, populate display page with data</t>
   </si>
 </sst>
 </file>
@@ -241,10 +252,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Milestones and Tasks'!$B$6:$B$15</c:f>
+              <c:f>'Milestones and Tasks'!$B$6:$B$16</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43369</c:v>
                 </c:pt>
@@ -267,12 +278,15 @@
                   <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43411</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43411</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>43411</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>43418</c:v>
                 </c:pt>
               </c:numCache>
@@ -308,7 +322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77EC8762-0DC3-ED4A-8521-C654BFB78613}" type="CELLRANGE">
+                    <a:fld id="{E91F34EE-84BE-42BE-9FF2-10A669786A5A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -342,7 +356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26D038D6-76B4-CC4E-B4A0-A4ED0474979B}" type="CELLRANGE">
+                    <a:fld id="{45B46C8E-BB12-43AB-A379-E91BBE71DD1B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -376,7 +390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EE0FC66-2E3E-9649-9B0E-4B32AA9983B0}" type="CELLRANGE">
+                    <a:fld id="{F77C843F-C36C-46F3-9393-BFD67A72B0A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -410,7 +424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83DBD9A1-DE0A-E549-812F-44513C7334E6}" type="CELLRANGE">
+                    <a:fld id="{3D05123B-BFF5-4748-A07E-5556A45D69FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -444,7 +458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5114708-498F-7242-A2C4-C1776711C1AB}" type="CELLRANGE">
+                    <a:fld id="{281774CD-4D4B-4D8D-B7F8-4E6E3C194120}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -478,7 +492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D2BB855-5576-BD4A-B68F-38D5D286B262}" type="CELLRANGE">
+                    <a:fld id="{815455A2-D764-4412-9260-F7275ADCD13A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -512,7 +526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A509D1C7-D3D8-F844-97C2-2F815AFF969F}" type="CELLRANGE">
+                    <a:fld id="{C0ED1497-196C-44E1-A7F1-53E02350AF88}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -546,7 +560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3C58CD1-91AF-3B40-AE33-9DDCFBBA0CF1}" type="CELLRANGE">
+                    <a:fld id="{AF4A6DE2-FCEB-4233-AFB8-BAD04BF26E1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -580,7 +594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7104702D-895B-3C47-9E8F-97FD5B8DD41E}" type="CELLRANGE">
+                    <a:fld id="{A50F910D-F835-46B0-A17E-AE24AB5EFCCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -614,7 +628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4A352D9-52B8-7449-AE51-0A85715F6E2F}" type="CELLRANGE">
+                    <a:fld id="{09F6C9FC-C8C8-4EC2-9943-F6982A1B3FB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -638,6 +652,40 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-536C-45A6-9570-1DE3BF052C2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A72FA81-8908-4F43-A30B-1647D8E44723}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1796-4E4D-B44D-4AAA41AEA048}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -687,10 +735,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Milestones and Tasks'!$D$6:$D$15</c:f>
+              <c:f>'Milestones and Tasks'!$D$6:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -719,6 +767,9 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
@@ -727,9 +778,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Milestones and Tasks'!$E$6:$E$15</c15:f>
+                <c15:f>'Milestones and Tasks'!$E$6:$E$16</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
                     <c:v>MEVN Stack Tutorial and Skeleton</c:v>
                   </c:pt>
@@ -737,27 +788,30 @@
                     <c:v>Basic web app page layout</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Ensure functionality with database such as importing/exporting data with GUI</c:v>
+                    <c:v>Integrate CRUD with manage data page</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Configure main monitor page(s) with a single layout</c:v>
+                    <c:v>Connect display page to database, populate display page with data</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Skeleton of all web pages</c:v>
+                    <c:v>Writing tests unit and integration test</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Authentication and security for admin login</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>Importing/exporting data with GUI</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>Admin web page edit and manage database pages polished</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>Additional layouts for monitor display</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>Deploy raspberry pi on server laptop</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>Troubleshoot and Testing</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -794,10 +848,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Milestones and Tasks'!$E$6:$E$15</c:f>
+              <c:f>'Milestones and Tasks'!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -826,6 +880,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -922,7 +979,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1894,27 +1951,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E05246-1C89-44E8-B933-C34D6DA2EA7B}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="6.33203125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="17.44140625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1923,7 +1980,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1936,7 +1993,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1949,7 +2006,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1958,7 +2015,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1969,19 +2026,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2000,11 +2057,11 @@
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2027,7 +2084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2043,12 +2100,12 @@
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2064,12 +2121,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -2085,12 +2142,12 @@
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -2106,90 +2163,109 @@
         <v>7</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="40" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2">
-        <f>B11</f>
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5">
         <v>43404</v>
       </c>
-      <c r="C12" s="2">
-        <f>C11</f>
+      <c r="C12" s="5">
         <v>43411</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>7</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13" spans="1:7" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2">
+        <f>B11</f>
+        <v>43404</v>
+      </c>
+      <c r="C13" s="2">
         <f>C11</f>
         <v>43411</v>
       </c>
-      <c r="C13" s="5">
-        <f>B13+D13</f>
-        <v>43418</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
-        <f>B13</f>
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <f>C11</f>
         <v>43411</v>
       </c>
-      <c r="C14" s="2">
-        <f>C13</f>
+      <c r="C14" s="5">
+        <f>B14+D14</f>
         <v>43418</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>7</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5">
-        <f>C13</f>
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2">
+        <f>B14</f>
+        <v>43411</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C14</f>
         <v>43418</v>
       </c>
-      <c r="C15" s="5">
-        <f>B15+D15</f>
-        <v>43425</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>7</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <f>C14</f>
+        <v>43418</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16+D16</f>
+        <v>43425</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2208,7 +2284,7 @@
       <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
